--- a/data/performance_data/excel_condensed/women waterpolo.xlsx
+++ b/data/performance_data/excel_condensed/women waterpolo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qingtongzou/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yil224/Group133_WI24/data/performance_data/excel_condensed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17703B5-C4D2-BA40-A866-43DE11957404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B18639-BAF3-034B-8D5B-145488576947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{03130D7D-B447-2549-81D1-516957A3AC34}"/>
   </bookViews>
@@ -240,10 +240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -251,35 +248,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5E5E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -287,183 +265,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,9 +289,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -522,7 +329,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -628,7 +435,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -770,7 +577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -780,94 +587,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E90ED4-0D01-8741-9A99-55191731EC49}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2">
         <v>25</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2">
         <v>113</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2">
         <v>53</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2">
         <v>6</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2">
         <v>59</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2">
         <v>0.46899999999999997</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2">
         <v>18</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2">
         <v>29</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2">
         <v>24</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2">
         <v>5</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" t="s">
         <v>14</v>
       </c>
       <c r="N2">
@@ -875,43 +682,43 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+      <c r="A3">
         <v>17</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3">
         <v>27</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3">
         <v>114</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3">
         <v>43</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3">
         <v>12</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3">
         <v>55</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3">
         <v>0.377</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3">
         <v>10</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3">
         <v>13</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3">
         <v>3</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" t="s">
         <v>14</v>
       </c>
       <c r="N3">
@@ -919,87 +726,87 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="25">
+      <c r="A4">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>31</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4">
         <v>85</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4">
         <v>40</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4">
         <v>13</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4">
         <v>53</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4">
         <v>0.47099999999999997</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4">
         <v>30</v>
       </c>
-      <c r="J4" s="10">
-        <v>4</v>
-      </c>
-      <c r="K4" s="27">
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
         <v>6</v>
       </c>
-      <c r="L4" s="27">
-        <v>4</v>
-      </c>
-      <c r="M4" s="15" t="s">
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
         <v>17</v>
       </c>
       <c r="N4">
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>12</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5">
         <v>28</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5">
         <v>87</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5">
         <v>27</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5">
         <v>25</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5">
         <v>52</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5">
         <v>0.31</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5">
         <v>20</v>
       </c>
-      <c r="J5" s="20">
-        <v>1</v>
-      </c>
-      <c r="K5" s="17">
-        <v>14</v>
-      </c>
-      <c r="L5" s="22">
-        <v>1</v>
-      </c>
-      <c r="M5" s="24" t="s">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
         <v>19</v>
       </c>
       <c r="N5">
@@ -1007,43 +814,43 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="25">
+      <c r="A6">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>27</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6">
         <v>82</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6">
         <v>29</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6">
         <v>21</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6">
         <v>50</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6">
         <v>0.35399999999999998</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6">
         <v>26</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6">
         <v>31</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6">
         <v>26</v>
       </c>
-      <c r="L6" s="27">
-        <v>2</v>
-      </c>
-      <c r="M6" s="15" t="s">
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
         <v>21</v>
       </c>
       <c r="N6">
@@ -1051,43 +858,43 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+      <c r="A7">
         <v>15</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7">
         <v>31</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7">
         <v>93</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7">
         <v>42</v>
       </c>
-      <c r="F7" s="21">
-        <v>4</v>
-      </c>
-      <c r="G7" s="22">
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
         <v>46</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7">
         <v>0.45200000000000001</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7">
         <v>25</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7">
         <v>7</v>
       </c>
-      <c r="K7" s="17">
-        <v>14</v>
-      </c>
-      <c r="L7" s="22">
-        <v>2</v>
-      </c>
-      <c r="M7" s="24" t="s">
+      <c r="K7">
+        <v>14</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
         <v>14</v>
       </c>
       <c r="N7">
@@ -1095,43 +902,43 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>27</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8">
         <v>50</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8">
         <v>23</v>
       </c>
-      <c r="F8" s="26">
-        <v>1</v>
-      </c>
-      <c r="G8" s="27">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>24</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8">
         <v>0.46</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8">
         <v>8</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8">
         <v>6</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8">
         <v>15</v>
       </c>
-      <c r="L8" s="27">
-        <v>4</v>
-      </c>
-      <c r="M8" s="15" t="s">
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8" t="s">
         <v>24</v>
       </c>
       <c r="N8">
@@ -1139,43 +946,43 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
+      <c r="A9">
         <v>19</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9">
         <v>27</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9">
         <v>38</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9">
         <v>15</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9">
         <v>6</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9">
         <v>21</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9">
         <v>0.39500000000000002</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9">
         <v>12</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9">
         <v>5</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9">
         <v>12</v>
       </c>
-      <c r="L9" s="22">
-        <v>1</v>
-      </c>
-      <c r="M9" s="24" t="s">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
         <v>26</v>
       </c>
       <c r="N9">
@@ -1183,43 +990,43 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>28</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10">
         <v>17</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10">
         <v>7</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10">
         <v>13</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10">
         <v>0.41199999999999998</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10">
         <v>7</v>
       </c>
-      <c r="J10" s="10">
-        <v>0</v>
-      </c>
-      <c r="K10" s="27">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>7</v>
       </c>
-      <c r="L10" s="27">
-        <v>0</v>
-      </c>
-      <c r="M10" s="15" t="s">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
         <v>14</v>
       </c>
       <c r="N10">
@@ -1227,43 +1034,43 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+      <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11">
         <v>19</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11">
         <v>17</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11">
         <v>9</v>
       </c>
-      <c r="F11" s="21">
-        <v>2</v>
-      </c>
-      <c r="G11" s="22">
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
         <v>11</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11">
         <v>0.52900000000000003</v>
       </c>
-      <c r="I11" s="17">
-        <v>2</v>
-      </c>
-      <c r="J11" s="20">
-        <v>0</v>
-      </c>
-      <c r="K11" s="22">
-        <v>4</v>
-      </c>
-      <c r="L11" s="22">
-        <v>0</v>
-      </c>
-      <c r="M11" s="24" t="s">
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
         <v>29</v>
       </c>
       <c r="N11">
@@ -1271,43 +1078,43 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
+      <c r="A12">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>30</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12">
         <v>23</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12">
         <v>7</v>
       </c>
-      <c r="F12" s="26">
-        <v>4</v>
-      </c>
-      <c r="G12" s="27">
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
         <v>11</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12">
         <v>0.30399999999999999</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12">
         <v>12</v>
       </c>
-      <c r="J12" s="10">
-        <v>2</v>
-      </c>
-      <c r="K12" s="27">
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
         <v>9</v>
       </c>
-      <c r="L12" s="27">
-        <v>0</v>
-      </c>
-      <c r="M12" s="15" t="s">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
         <v>31</v>
       </c>
       <c r="N12">
@@ -1315,43 +1122,43 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
+      <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>5</v>
       </c>
-      <c r="D13" s="10">
-        <v>2</v>
-      </c>
-      <c r="E13" s="8">
-        <v>1</v>
-      </c>
-      <c r="F13" s="26">
-        <v>0</v>
-      </c>
-      <c r="G13" s="27">
-        <v>1</v>
-      </c>
-      <c r="H13" s="28">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>0.5</v>
       </c>
-      <c r="I13" s="10">
-        <v>2</v>
-      </c>
-      <c r="J13" s="27">
-        <v>0</v>
-      </c>
-      <c r="K13" s="27">
-        <v>1</v>
-      </c>
-      <c r="L13" s="10">
-        <v>0</v>
-      </c>
-      <c r="M13" s="29" t="s">
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
         <v>17</v>
       </c>
       <c r="N13">
@@ -1359,43 +1166,43 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+      <c r="A14">
         <v>24</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14">
         <v>5</v>
       </c>
-      <c r="D14" s="20">
-        <v>4</v>
-      </c>
-      <c r="E14" s="19">
-        <v>0</v>
-      </c>
-      <c r="F14" s="21">
-        <v>1</v>
-      </c>
-      <c r="G14" s="22">
-        <v>1</v>
-      </c>
-      <c r="H14" s="23">
-        <v>0</v>
-      </c>
-      <c r="I14" s="20">
-        <v>1</v>
-      </c>
-      <c r="J14" s="22">
-        <v>0</v>
-      </c>
-      <c r="K14" s="22">
-        <v>1</v>
-      </c>
-      <c r="L14" s="20">
-        <v>0</v>
-      </c>
-      <c r="M14" s="30" t="s">
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
         <v>14</v>
       </c>
       <c r="N14">
@@ -1403,43 +1210,43 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="25">
-        <v>2</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15">
         <v>19</v>
       </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="26">
-        <v>0</v>
-      </c>
-      <c r="G15" s="27">
-        <v>0</v>
-      </c>
-      <c r="H15" s="28">
-        <v>0</v>
-      </c>
-      <c r="I15" s="10">
-        <v>0</v>
-      </c>
-      <c r="J15" s="27">
-        <v>2</v>
-      </c>
-      <c r="K15" s="27">
-        <v>1</v>
-      </c>
-      <c r="L15" s="10">
-        <v>0</v>
-      </c>
-      <c r="M15" s="29" t="s">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
         <v>14</v>
       </c>
       <c r="N15">
@@ -1447,43 +1254,43 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="19">
-        <v>1</v>
-      </c>
-      <c r="D16" s="20">
-        <v>2</v>
-      </c>
-      <c r="E16" s="19">
-        <v>0</v>
-      </c>
-      <c r="F16" s="21">
-        <v>0</v>
-      </c>
-      <c r="G16" s="22">
-        <v>0</v>
-      </c>
-      <c r="H16" s="23">
-        <v>0</v>
-      </c>
-      <c r="I16" s="20">
-        <v>0</v>
-      </c>
-      <c r="J16" s="22">
-        <v>0</v>
-      </c>
-      <c r="K16" s="22">
-        <v>1</v>
-      </c>
-      <c r="L16" s="20">
-        <v>0</v>
-      </c>
-      <c r="M16" s="30" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
         <v>17</v>
       </c>
       <c r="N16">
@@ -1491,43 +1298,43 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="25">
-        <v>1</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="26">
-        <v>0</v>
-      </c>
-      <c r="G17" s="27">
-        <v>0</v>
-      </c>
-      <c r="H17" s="28">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10">
-        <v>0</v>
-      </c>
-      <c r="J17" s="27">
-        <v>0</v>
-      </c>
-      <c r="K17" s="27">
-        <v>0</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0</v>
-      </c>
-      <c r="M17" s="29" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
         <v>14</v>
       </c>
       <c r="N17">
@@ -1535,43 +1342,43 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
+      <c r="A18">
         <v>6</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18" s="20">
-        <v>1</v>
-      </c>
-      <c r="E18" s="19">
-        <v>0</v>
-      </c>
-      <c r="F18" s="21">
-        <v>0</v>
-      </c>
-      <c r="G18" s="22">
-        <v>0</v>
-      </c>
-      <c r="H18" s="23">
-        <v>0</v>
-      </c>
-      <c r="I18" s="20">
-        <v>1</v>
-      </c>
-      <c r="J18" s="22">
-        <v>0</v>
-      </c>
-      <c r="K18" s="22">
-        <v>0</v>
-      </c>
-      <c r="L18" s="20">
-        <v>0</v>
-      </c>
-      <c r="M18" s="30" t="s">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
         <v>14</v>
       </c>
       <c r="N18">
@@ -1579,43 +1386,43 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="25">
-        <v>2</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="8">
-        <v>4</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="26">
-        <v>0</v>
-      </c>
-      <c r="G19" s="27">
-        <v>0</v>
-      </c>
-      <c r="H19" s="28">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10">
-        <v>1</v>
-      </c>
-      <c r="J19" s="27">
-        <v>0</v>
-      </c>
-      <c r="K19" s="27">
-        <v>0</v>
-      </c>
-      <c r="L19" s="10">
-        <v>0</v>
-      </c>
-      <c r="M19" s="29" t="s">
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
         <v>14</v>
       </c>
       <c r="N19">
@@ -1623,43 +1430,43 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20">
         <v>21</v>
       </c>
-      <c r="D20" s="20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="19">
-        <v>0</v>
-      </c>
-      <c r="F20" s="21">
-        <v>0</v>
-      </c>
-      <c r="G20" s="22">
-        <v>0</v>
-      </c>
-      <c r="H20" s="23">
-        <v>0</v>
-      </c>
-      <c r="I20" s="20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="22">
-        <v>0</v>
-      </c>
-      <c r="K20" s="17">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>13</v>
       </c>
-      <c r="L20" s="20">
-        <v>0</v>
-      </c>
-      <c r="M20" s="30" t="s">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
         <v>14</v>
       </c>
       <c r="N20">
@@ -1667,43 +1474,43 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="40">
-        <v>4</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="26">
-        <v>0</v>
-      </c>
-      <c r="G21" s="27">
-        <v>0</v>
-      </c>
-      <c r="H21" s="28">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
-        <v>0</v>
-      </c>
-      <c r="J21" s="27">
-        <v>0</v>
-      </c>
-      <c r="K21" s="27">
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>5</v>
       </c>
-      <c r="L21" s="10">
-        <v>0</v>
-      </c>
-      <c r="M21" s="29" t="s">
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
         <v>14</v>
       </c>
       <c r="N21">
@@ -1711,1058 +1518,1058 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22">
         <v>15</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22">
         <v>12</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22">
         <v>47</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22">
         <v>19</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22">
         <v>6</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22">
         <v>25</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22">
         <v>0.40400000000000003</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22">
         <v>7</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22">
         <v>19</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22">
         <v>6</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22">
         <v>5</v>
       </c>
-      <c r="M22" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="N22" s="49">
+      <c r="M22" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22">
         <v>2024</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="17">
+      <c r="A23">
         <v>17</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23">
         <v>12</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23">
         <v>34</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23">
         <v>12</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23">
         <v>11</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23">
         <v>23</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23">
         <v>0.35299999999999998</v>
       </c>
-      <c r="I23" s="47">
-        <v>4</v>
-      </c>
-      <c r="J23" s="47">
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
         <v>7</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23">
         <v>6</v>
       </c>
-      <c r="L23" s="20">
-        <v>1</v>
-      </c>
-      <c r="M23" s="48" t="s">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
         <v>47</v>
       </c>
-      <c r="N23" s="49">
+      <c r="N23">
         <v>2024</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
-        <v>4</v>
-      </c>
-      <c r="B24" s="46" t="s">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24">
         <v>11</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24">
         <v>50</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24">
         <v>20</v>
       </c>
-      <c r="F24" s="45">
-        <v>2</v>
-      </c>
-      <c r="G24" s="45">
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
         <v>22</v>
       </c>
-      <c r="H24" s="51">
+      <c r="H24">
         <v>0.4</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24">
         <v>5</v>
       </c>
-      <c r="J24" s="45">
+      <c r="J24">
         <v>7</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24">
         <v>6</v>
       </c>
-      <c r="L24" s="10">
-        <v>0</v>
-      </c>
-      <c r="M24" s="46" t="s">
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
         <v>49</v>
       </c>
-      <c r="N24" s="49">
+      <c r="N24">
         <v>2024</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A25" s="17">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>7</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C25">
         <v>12</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25">
         <v>39</v>
       </c>
-      <c r="E25" s="47">
-        <v>14</v>
-      </c>
-      <c r="F25" s="47">
+      <c r="E25">
+        <v>14</v>
+      </c>
+      <c r="F25">
         <v>8</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25">
         <v>22</v>
       </c>
-      <c r="H25" s="50">
+      <c r="H25">
         <v>0.35899999999999999</v>
       </c>
-      <c r="I25" s="47">
+      <c r="I25">
         <v>9</v>
       </c>
-      <c r="J25" s="47">
+      <c r="J25">
         <v>6</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25">
         <v>7</v>
       </c>
-      <c r="L25" s="20">
-        <v>0</v>
-      </c>
-      <c r="M25" s="48" t="s">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
         <v>50</v>
       </c>
-      <c r="N25" s="49">
+      <c r="N25">
         <v>2024</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="25">
+      <c r="A26">
         <v>11</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26">
         <v>12</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26">
         <v>42</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26">
         <v>16</v>
       </c>
-      <c r="F26" s="45">
-        <v>4</v>
-      </c>
-      <c r="G26" s="45">
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
         <v>20</v>
       </c>
-      <c r="H26" s="51">
+      <c r="H26">
         <v>0.38100000000000001</v>
       </c>
-      <c r="I26" s="45">
+      <c r="I26">
         <v>18</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26">
         <v>3</v>
       </c>
-      <c r="K26" s="10">
-        <v>4</v>
-      </c>
-      <c r="L26" s="10">
-        <v>1</v>
-      </c>
-      <c r="M26" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="N26" s="49">
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26">
         <v>2024</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A27" s="17">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>19</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27">
         <v>11</v>
       </c>
-      <c r="D27" s="47">
+      <c r="D27">
         <v>16</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27">
         <v>5</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27">
         <v>15</v>
       </c>
-      <c r="G27" s="47">
+      <c r="G27">
         <v>20</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27">
         <v>0.313</v>
       </c>
-      <c r="I27" s="47">
+      <c r="I27">
         <v>3</v>
       </c>
-      <c r="J27" s="47">
+      <c r="J27">
         <v>6</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27">
         <v>9</v>
       </c>
-      <c r="L27" s="20">
-        <v>1</v>
-      </c>
-      <c r="M27" s="48" t="s">
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="49">
+      <c r="N27">
         <v>2024</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="22" x14ac:dyDescent="0.2">
-      <c r="A28" s="25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>22</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28">
         <v>12</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28">
         <v>33</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28">
         <v>13</v>
       </c>
-      <c r="F28" s="45">
-        <v>1</v>
-      </c>
-      <c r="G28" s="45">
-        <v>14</v>
-      </c>
-      <c r="H28" s="51">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>14</v>
+      </c>
+      <c r="H28">
         <v>0.39400000000000002</v>
       </c>
-      <c r="I28" s="45">
+      <c r="I28">
         <v>17</v>
       </c>
-      <c r="J28" s="45">
+      <c r="J28">
         <v>6</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28">
         <v>6</v>
       </c>
-      <c r="L28" s="10">
-        <v>1</v>
-      </c>
-      <c r="M28" s="46" t="s">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
         <v>53</v>
       </c>
-      <c r="N28" s="49">
+      <c r="N28">
         <v>2024</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="17">
+      <c r="A29">
         <v>23</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29">
         <v>12</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29">
         <v>21</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29">
         <v>7</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29">
         <v>3</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29">
         <v>10</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29">
         <v>0.33300000000000002</v>
       </c>
-      <c r="I29" s="47">
-        <v>4</v>
-      </c>
-      <c r="J29" s="20">
-        <v>1</v>
-      </c>
-      <c r="K29" s="20">
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
         <v>7</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29">
         <v>3</v>
       </c>
-      <c r="M29" s="48" t="s">
+      <c r="M29" t="s">
         <v>55</v>
       </c>
-      <c r="N29" s="49">
+      <c r="N29">
         <v>2024</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="25">
+      <c r="A30">
         <v>13</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30">
         <v>12</v>
       </c>
-      <c r="D30" s="10">
-        <v>14</v>
-      </c>
-      <c r="E30" s="10">
+      <c r="D30">
+        <v>14</v>
+      </c>
+      <c r="E30">
         <v>6</v>
       </c>
-      <c r="F30" s="26">
-        <v>4</v>
-      </c>
-      <c r="G30" s="27">
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
         <v>10</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30">
         <v>0.42899999999999999</v>
       </c>
-      <c r="I30" s="45">
+      <c r="I30">
         <v>3</v>
       </c>
-      <c r="J30" s="10">
-        <v>2</v>
-      </c>
-      <c r="K30" s="10">
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
         <v>5</v>
       </c>
-      <c r="L30" s="10">
-        <v>0</v>
-      </c>
-      <c r="M30" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="N30" s="49">
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30">
         <v>2024</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="17">
+      <c r="A31">
         <v>24</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31">
         <v>12</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31">
         <v>7</v>
       </c>
-      <c r="E31" s="20">
-        <v>2</v>
-      </c>
-      <c r="F31" s="21">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
         <v>8</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31">
         <v>10</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31">
         <v>0.28599999999999998</v>
       </c>
-      <c r="I31" s="47">
+      <c r="I31">
         <v>3</v>
       </c>
-      <c r="J31" s="20">
-        <v>0</v>
-      </c>
-      <c r="K31" s="20">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>5</v>
       </c>
-      <c r="L31" s="20">
-        <v>0</v>
-      </c>
-      <c r="M31" s="48" t="s">
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
         <v>58</v>
       </c>
-      <c r="N31" s="49">
+      <c r="N31">
         <v>2024</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="25">
+      <c r="A32">
         <v>18</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32">
         <v>12</v>
       </c>
-      <c r="D32" s="10">
-        <v>14</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32">
         <v>9</v>
       </c>
-      <c r="F32" s="26">
-        <v>0</v>
-      </c>
-      <c r="G32" s="27">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>9</v>
       </c>
-      <c r="H32" s="34">
+      <c r="H32">
         <v>0.64300000000000002</v>
       </c>
-      <c r="I32" s="45">
+      <c r="I32">
         <v>6</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32">
         <v>3</v>
       </c>
-      <c r="K32" s="10">
-        <v>2</v>
-      </c>
-      <c r="L32" s="10">
-        <v>0</v>
-      </c>
-      <c r="M32" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="N32" s="49">
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32">
         <v>2024</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="17">
+      <c r="A33">
         <v>20</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33">
         <v>12</v>
       </c>
-      <c r="D33" s="20">
-        <v>14</v>
-      </c>
-      <c r="E33" s="20">
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33">
         <v>5</v>
       </c>
-      <c r="F33" s="21">
-        <v>4</v>
-      </c>
-      <c r="G33" s="22">
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
         <v>9</v>
       </c>
-      <c r="H33" s="33">
+      <c r="H33">
         <v>0.35699999999999998</v>
       </c>
-      <c r="I33" s="47">
+      <c r="I33">
         <v>7</v>
       </c>
-      <c r="J33" s="20">
-        <v>4</v>
-      </c>
-      <c r="K33" s="20">
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
         <v>3</v>
       </c>
-      <c r="L33" s="20">
-        <v>0</v>
-      </c>
-      <c r="M33" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="N33" s="49">
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33">
         <v>2024</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="25">
+      <c r="A34">
         <v>16</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34">
         <v>10</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34">
         <v>13</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34">
         <v>5</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F34">
         <v>3</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34">
         <v>8</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34">
         <v>0.38500000000000001</v>
       </c>
-      <c r="I34" s="45">
-        <v>2</v>
-      </c>
-      <c r="J34" s="10">
-        <v>0</v>
-      </c>
-      <c r="K34" s="10">
-        <v>4</v>
-      </c>
-      <c r="L34" s="10">
-        <v>0</v>
-      </c>
-      <c r="M34" s="46" t="s">
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
         <v>53</v>
       </c>
-      <c r="N34" s="49">
+      <c r="N34">
         <v>2024</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="17">
+      <c r="A35">
         <v>3</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35">
         <v>5</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35">
         <v>12</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35">
         <v>5</v>
       </c>
-      <c r="F35" s="21">
-        <v>2</v>
-      </c>
-      <c r="G35" s="22">
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
         <v>7</v>
       </c>
-      <c r="H35" s="33">
+      <c r="H35">
         <v>0.41699999999999998</v>
       </c>
-      <c r="I35" s="47">
-        <v>2</v>
-      </c>
-      <c r="J35" s="20">
-        <v>0</v>
-      </c>
-      <c r="K35" s="20">
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>7</v>
       </c>
-      <c r="L35" s="20">
-        <v>0</v>
-      </c>
-      <c r="M35" s="48" t="s">
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
         <v>53</v>
       </c>
-      <c r="N35" s="49">
+      <c r="N35">
         <v>2024</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="25">
+      <c r="A36">
         <v>5</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36">
         <v>11</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36">
         <v>11</v>
       </c>
-      <c r="E36" s="10">
-        <v>4</v>
-      </c>
-      <c r="F36" s="26">
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
         <v>3</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36">
         <v>7</v>
       </c>
-      <c r="H36" s="34">
+      <c r="H36">
         <v>0.36399999999999999</v>
       </c>
-      <c r="I36" s="45">
+      <c r="I36">
         <v>3</v>
       </c>
-      <c r="J36" s="10">
-        <v>1</v>
-      </c>
-      <c r="K36" s="10">
-        <v>4</v>
-      </c>
-      <c r="L36" s="10">
-        <v>0</v>
-      </c>
-      <c r="M36" s="46" t="s">
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
         <v>60</v>
       </c>
-      <c r="N36" s="49">
+      <c r="N36">
         <v>2024</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="17">
+      <c r="A37">
         <v>6</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37">
         <v>6</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37">
         <v>7</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37">
         <v>3</v>
       </c>
-      <c r="F37" s="21">
-        <v>4</v>
-      </c>
-      <c r="G37" s="22">
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
         <v>7</v>
       </c>
-      <c r="H37" s="33">
+      <c r="H37">
         <v>0.42899999999999999</v>
       </c>
-      <c r="I37" s="47">
-        <v>2</v>
-      </c>
-      <c r="J37" s="20">
-        <v>1</v>
-      </c>
-      <c r="K37" s="20">
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
         <v>7</v>
       </c>
-      <c r="L37" s="20">
-        <v>1</v>
-      </c>
-      <c r="M37" s="48" t="s">
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
         <v>61</v>
       </c>
-      <c r="N37" s="49">
+      <c r="N37">
         <v>2024</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="25">
-        <v>14</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="A38">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="26">
-        <v>4</v>
-      </c>
-      <c r="D38" s="10">
-        <v>4</v>
-      </c>
-      <c r="E38" s="10">
-        <v>4</v>
-      </c>
-      <c r="F38" s="26">
-        <v>1</v>
-      </c>
-      <c r="G38" s="27">
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <v>5</v>
       </c>
-      <c r="H38" s="34">
-        <v>1</v>
-      </c>
-      <c r="I38" s="45">
-        <v>2</v>
-      </c>
-      <c r="J38" s="10">
-        <v>0</v>
-      </c>
-      <c r="K38" s="10">
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
         <v>3</v>
       </c>
-      <c r="L38" s="10">
-        <v>0</v>
-      </c>
-      <c r="M38" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="N38" s="49">
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38">
         <v>2024</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="17">
-        <v>2</v>
-      </c>
-      <c r="B39" s="18" t="s">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39">
         <v>7</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39">
         <v>6</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39">
         <v>3</v>
       </c>
-      <c r="F39" s="21">
-        <v>1</v>
-      </c>
-      <c r="G39" s="22">
-        <v>4</v>
-      </c>
-      <c r="H39" s="33">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
         <v>0.5</v>
       </c>
-      <c r="I39" s="47">
-        <v>2</v>
-      </c>
-      <c r="J39" s="20">
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
         <v>5</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K39">
         <v>5</v>
       </c>
-      <c r="L39" s="20">
-        <v>0</v>
-      </c>
-      <c r="M39" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="N39" s="49">
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N39">
         <v>2024</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="25">
+      <c r="A40">
         <v>21</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40">
         <v>5</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40">
         <v>6</v>
       </c>
-      <c r="E40" s="10">
-        <v>2</v>
-      </c>
-      <c r="F40" s="26">
-        <v>0</v>
-      </c>
-      <c r="G40" s="27">
-        <v>2</v>
-      </c>
-      <c r="H40" s="34">
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
         <v>0.33300000000000002</v>
       </c>
-      <c r="I40" s="45">
-        <v>1</v>
-      </c>
-      <c r="J40" s="10">
-        <v>2</v>
-      </c>
-      <c r="K40" s="10">
-        <v>1</v>
-      </c>
-      <c r="L40" s="10">
-        <v>0</v>
-      </c>
-      <c r="M40" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="N40" s="49">
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40">
         <v>2024</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="17">
+      <c r="A41">
         <v>9</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41">
         <v>7</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41">
         <v>10</v>
       </c>
-      <c r="E41" s="20">
-        <v>1</v>
-      </c>
-      <c r="F41" s="21">
-        <v>0</v>
-      </c>
-      <c r="G41" s="22">
-        <v>1</v>
-      </c>
-      <c r="H41" s="33">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
         <v>0.1</v>
       </c>
-      <c r="I41" s="47">
-        <v>1</v>
-      </c>
-      <c r="J41" s="20">
-        <v>0</v>
-      </c>
-      <c r="K41" s="20">
-        <v>1</v>
-      </c>
-      <c r="L41" s="20">
-        <v>0</v>
-      </c>
-      <c r="M41" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="N41" s="49">
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41">
         <v>2024</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="25">
+      <c r="A42">
         <v>12</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42">
         <v>5</v>
       </c>
-      <c r="D42" s="10">
-        <v>2</v>
-      </c>
-      <c r="E42" s="10">
-        <v>1</v>
-      </c>
-      <c r="F42" s="26">
-        <v>0</v>
-      </c>
-      <c r="G42" s="27">
-        <v>1</v>
-      </c>
-      <c r="H42" s="34">
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
         <v>0.5</v>
       </c>
-      <c r="I42" s="45">
-        <v>2</v>
-      </c>
-      <c r="J42" s="10">
-        <v>0</v>
-      </c>
-      <c r="K42" s="10">
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
         <v>3</v>
       </c>
-      <c r="L42" s="10">
-        <v>0</v>
-      </c>
-      <c r="M42" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="N42" s="49">
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42">
         <v>2024</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="17">
-        <v>1</v>
-      </c>
-      <c r="B43" s="18" t="s">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43">
         <v>6</v>
       </c>
-      <c r="D43" s="20">
-        <v>1</v>
-      </c>
-      <c r="E43" s="20">
-        <v>1</v>
-      </c>
-      <c r="F43" s="21">
-        <v>0</v>
-      </c>
-      <c r="G43" s="22">
-        <v>1</v>
-      </c>
-      <c r="H43" s="33">
-        <v>1</v>
-      </c>
-      <c r="I43" s="47">
-        <v>2</v>
-      </c>
-      <c r="J43" s="20">
-        <v>0</v>
-      </c>
-      <c r="K43" s="20">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
         <v>10</v>
       </c>
-      <c r="L43" s="20">
-        <v>0</v>
-      </c>
-      <c r="M43" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="N43" s="49">
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43">
         <v>2024</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+      <c r="A44" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C44">
         <v>3</v>
       </c>
-      <c r="D44" s="10">
-        <v>0</v>
-      </c>
-      <c r="E44" s="10">
-        <v>0</v>
-      </c>
-      <c r="F44" s="26">
-        <v>1</v>
-      </c>
-      <c r="G44" s="27">
-        <v>1</v>
-      </c>
-      <c r="H44" s="34">
-        <v>0</v>
-      </c>
-      <c r="I44" s="45">
-        <v>0</v>
-      </c>
-      <c r="J44" s="10">
-        <v>0</v>
-      </c>
-      <c r="K44" s="10">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
         <v>5</v>
       </c>
-      <c r="L44" s="10">
-        <v>0</v>
-      </c>
-      <c r="M44" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="N44" s="49">
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>14</v>
+      </c>
+      <c r="N44">
         <v>2024</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="35" t="s">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="36">
-        <v>4</v>
-      </c>
-      <c r="D45" s="37">
-        <v>0</v>
-      </c>
-      <c r="E45" s="37">
-        <v>0</v>
-      </c>
-      <c r="F45" s="36">
-        <v>1</v>
-      </c>
-      <c r="G45" s="38">
-        <v>1</v>
-      </c>
-      <c r="H45" s="39">
-        <v>0</v>
-      </c>
-      <c r="I45" s="42">
-        <v>1</v>
-      </c>
-      <c r="J45" s="37">
-        <v>0</v>
-      </c>
-      <c r="K45" s="37">
-        <v>4</v>
-      </c>
-      <c r="L45" s="37">
-        <v>0</v>
-      </c>
-      <c r="M45" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="N45" s="49">
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>4</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45">
         <v>2024</v>
       </c>
     </row>
